--- a/data/Subset 1/Video Mosaic 11th grade pizza 2.xlsx
+++ b/data/Subset 1/Video Mosaic 11th grade pizza 2.xlsx
@@ -1514,7 +1514,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1537,7 +1537,7 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1560,7 +1560,7 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1606,7 +1606,7 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1652,7 +1652,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1675,7 +1675,7 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1721,7 +1721,7 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1767,7 +1767,7 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1790,7 +1790,7 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1859,7 +1859,7 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1882,7 +1882,7 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -1905,7 +1905,7 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -1951,7 +1951,7 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2066,7 +2066,7 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2089,7 +2089,7 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2112,7 +2112,7 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2135,7 +2135,7 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2158,7 +2158,7 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2204,7 +2204,7 @@
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2227,7 +2227,7 @@
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2319,7 +2319,7 @@
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2434,7 +2434,7 @@
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2457,7 +2457,7 @@
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2503,7 +2503,7 @@
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2526,7 +2526,7 @@
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2549,7 +2549,7 @@
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2595,7 +2595,7 @@
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2641,7 +2641,7 @@
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2710,7 +2710,7 @@
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -2756,7 +2756,7 @@
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -2874,7 +2874,7 @@
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3013,7 +3013,7 @@
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3036,7 +3036,7 @@
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3059,7 +3059,7 @@
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3082,7 +3082,7 @@
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Dr. Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
